--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A4F92-C0FD-4B10-85AD-156AB9597348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C758CB3-9E4D-47E7-937C-F549A89C0E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="Ghi chú" sheetId="5" r:id="rId5"/>
     <sheet name="Chốt kho" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ghi chú'!$A$1:$F$7</definedName>
   </definedNames>
@@ -32,8 +35,213 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TungNM</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{ACFA2AA1-BB2E-4768-A33C-D52F91838E43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+KhoVNET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{8D59E5FA-C74A-4718-AD83-17A8036E27D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kho VNET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C52714B8-B877-4917-A624-C7D101A02D61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kho VNET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{4E50349C-3C51-4DF0-9767-70C75F6D0384}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 bộ anh Tuấn NB (trong Tổng 6 bộ)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{79C149D9-8F67-422B-862A-050D435EEBD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4 bộ anh Tuấn NB(Tổng 6 bộ), 3 bộ của KhoVNET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{84213893-F9A9-4CD3-965E-7B8F25B0DE33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 bộ của KhoVNET
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{0761BAF5-5C4F-4480-94AF-5D0AFF87E0AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 bộ của KhoVNET
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{8EABD3A3-761D-421C-9F43-76FF41FB332F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+KhoVNET
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>VNSH01</t>
   </si>
@@ -75,9 +283,6 @@
   </si>
   <si>
     <t>Ngày Xuất</t>
-  </si>
-  <si>
-    <t>Danh Sách Thiết Bị Gửi Trên Bảo Hành - Sản Xuất Tháng 01</t>
   </si>
   <si>
     <t>Victory</t>
@@ -157,12 +362,33 @@
   <si>
     <t>Đã trả (02/02/26)</t>
   </si>
+  <si>
+    <t>GPS Global</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
+  </si>
+  <si>
+    <t>ĐL Hải Yến</t>
+  </si>
+  <si>
+    <t>ĐL SEA</t>
+  </si>
+  <si>
+    <t>ĐL Anh Tuấn BG</t>
+  </si>
+  <si>
+    <t>Tuyên Hằng</t>
+  </si>
+  <si>
+    <t>Đã trả (03/02/26)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +434,32 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -325,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +651,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,14 +684,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,6 +726,128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Nhập xuất tồn"/>
+      <sheetName val="Nhập"/>
+      <sheetName val="Xuất"/>
+      <sheetName val="Huỷ"/>
+      <sheetName val="Ghi chú"/>
+      <sheetName val="Chốt kho"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,16 +1132,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -794,6 +1177,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
+        <f>'[1]Nhập xuất tồn'!F3</f>
         <v>3</v>
       </c>
       <c r="D3" s="4">
@@ -802,18 +1186,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -824,6 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
+        <f>'[1]Nhập xuất tồn'!F4</f>
         <v>87</v>
       </c>
       <c r="D4" s="4">
@@ -832,18 +1217,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,10 +1236,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
-        <v>4</v>
+        <f>'[1]Nhập xuất tồn'!F5</f>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <f>Nhập!AH5</f>
@@ -862,18 +1248,18 @@
       </c>
       <c r="E5" s="4">
         <f>Xuất!AH6+Huỷ!AH5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F22" si="1">C5+D5-E5</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,29 +1267,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <f>'[1]Nhập xuất tồn'!F6</f>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
         <f>Nhập!AH6</f>
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f>Xuất!AH6</f>
-        <v>0</v>
+        <f>Xuất!AH7</f>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,29 +1298,30 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <f>'[1]Nhập xuất tồn'!F7</f>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <f>Nhập!AH7</f>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>Xuất!AH7</f>
-        <v>0</v>
+        <f>Xuất!AH8</f>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -941,29 +1329,30 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>23</v>
+        <f>'[1]Nhập xuất tồn'!F8</f>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
         <f>Nhập!AH8</f>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>Xuất!AH8</f>
+        <f>Xuất!AH9</f>
         <v>0</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,9 +1360,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
+        <f>'[1]Nhập xuất tồn'!F9</f>
         <v>6</v>
       </c>
       <c r="D9" s="4">
@@ -981,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <f>Xuất!AH9</f>
-        <v>0</v>
+        <f>Xuất!AH10</f>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,9 +1391,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
+        <f>'[1]Nhập xuất tồn'!F10</f>
         <v>8</v>
       </c>
       <c r="D10" s="4">
@@ -1011,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <f>Xuất!AH10</f>
-        <v>0</v>
+        <f>Xuất!AH11</f>
+        <v>7</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1031,29 +1422,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <f>'[1]Nhập xuất tồn'!F11</f>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <f>Nhập!AH11</f>
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <f>Xuất!AH11</f>
+        <f>Xuất!AH12</f>
         <v>0</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,9 +1453,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
+        <f>'[1]Nhập xuất tồn'!F12</f>
         <v>1</v>
       </c>
       <c r="D12" s="4">
@@ -1071,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f>Xuất!AH12</f>
-        <v>0</v>
+        <f>Xuất!AH13</f>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,29 +1484,30 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
-        <v>3</v>
+        <f>'[1]Nhập xuất tồn'!F13</f>
+        <v>4</v>
       </c>
       <c r="D13" s="4">
         <f>Nhập!AH13</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>Xuất!AH13</f>
+        <f>Xuất!AH14</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1121,9 +1515,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
+        <f>'[1]Nhập xuất tồn'!F14</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
@@ -1131,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <f>Xuất!AH14</f>
+        <f>Xuất!AH15</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
@@ -1151,18 +1546,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <f>'[1]Nhập xuất tồn'!F15</f>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <f>Nhập!AH15</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f>Xuất!AH15</f>
-        <v>0</v>
+        <f>Xuất!AH16</f>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
@@ -1181,15 +1577,18 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
+        <f>'[1]Nhập xuất tồn'!F16</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="4">
         <f>Nhập!AH16</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f>Xuất!AH16</f>
+        <f>Xuất!AH17</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
@@ -1207,9 +1606,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4">
+        <f>'[1]Nhập xuất tồn'!F17</f>
         <v>4</v>
       </c>
       <c r="D17" s="4">
@@ -1217,17 +1617,17 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>Xuất!AH17</f>
-        <v>0</v>
+        <f>Xuất!AH18</f>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,15 +1635,18 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="4">
+        <f>'[1]Nhập xuất tồn'!F18</f>
+        <v>0</v>
+      </c>
       <c r="D18" s="4">
         <f>Nhập!AH18</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f>Xuất!AH18</f>
+        <f>Xuất!AH19</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
@@ -1261,26 +1664,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4">
         <f>Nhập!AH19</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <f>Xuất!AH19</f>
+        <f>Xuất!AH20</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1291,22 +1690,27 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>'[1]Nhập xuất tồn'!F20</f>
+        <v>1</v>
+      </c>
       <c r="D20" s="4">
         <f>Nhập!AH20</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f>Xuất!AH20</f>
+        <f>Xuất!AH21</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1317,9 +1721,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4">
+        <f>'[1]Nhập xuất tồn'!F21</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
@@ -1327,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f>Xuất!AH21</f>
+        <f>Xuất!AH22</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
@@ -1350,6 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4">
+        <f>'[1]Nhập xuất tồn'!F22</f>
         <v>6</v>
       </c>
       <c r="D22" s="4">
@@ -1357,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f>Xuất!AH22</f>
+        <f>Xuất!AH23</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
@@ -1373,13 +1779,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="4">
         <f>SUM(C3:C22)</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
@@ -1387,27 +1793,29 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <f>SUM(F5:F22)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="1">
-        <f>SUM(C5:C22)</f>
-        <v>60</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -1439,7 +1847,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:AG22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,52 +1859,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="7">
         <v>1</v>
       </c>
@@ -1590,7 +1998,7 @@
       <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
+      <c r="AH2" s="34"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -1683,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1726,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1769,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1812,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1855,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1898,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1941,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1984,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2027,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2070,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2110,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2150,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2190,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2233,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2276,7 +2684,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2319,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2359,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2447,11 +2855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,88 +2871,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="7">
         <v>1</v>
       </c>
@@ -2638,7 +3046,7 @@
       <c r="AG3" s="7">
         <v>31</v>
       </c>
-      <c r="AH3" s="32"/>
+      <c r="AH3" s="34"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -2648,7 +3056,9 @@
         <v>0</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2680,7 +3090,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f>SUM(C4:AG4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2692,9 +3102,11 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>16</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2725,7 +3137,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2733,11 +3145,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2768,7 +3182,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -2776,11 +3190,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2811,7 +3227,7 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -2819,11 +3235,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2854,7 +3272,7 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -2862,7 +3280,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2905,11 +3323,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2940,7 +3360,7 @@
       <c r="AG10" s="7"/>
       <c r="AH10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -2948,11 +3368,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2983,7 +3405,7 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -2991,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3034,11 +3456,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3069,7 +3493,7 @@
       <c r="AG13" s="7"/>
       <c r="AH13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -3077,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3120,7 +3544,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3163,11 +3587,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3198,7 +3624,7 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -3206,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3249,11 +3675,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3284,13 +3712,13 @@
       <c r="AG18" s="7"/>
       <c r="AH18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3328,7 +3756,7 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3366,7 +3794,7 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3404,7 +3832,7 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3486,6 +3914,7 @@
     <mergeCell ref="AH2:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3506,52 +3935,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="7">
         <v>1</v>
       </c>
@@ -3645,7 +4074,7 @@
       <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
+      <c r="AH2" s="34"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3738,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3781,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3824,7 +4253,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3867,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3910,7 +4339,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3953,7 +4382,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3996,7 +4425,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4039,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4082,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4125,7 +4554,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4168,7 +4597,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4211,7 +4640,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4254,7 +4683,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4297,7 +4726,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4338,7 +4767,7 @@
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4376,7 +4805,7 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4414,7 +4843,7 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4503,7 +4932,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,13 +4948,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
@@ -4534,19 +4963,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="36">
         <v>46055</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4554,53 +4983,85 @@
         <v>2</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="18"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="19">
+        <v>6</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="36">
+        <v>46056</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="19">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4616,54 +5077,54 @@
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4974,6 +5435,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISNUMBER(SEARCH("Đã trả",$F2))</formula>
@@ -4991,27 +5456,27 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5047,7 +5512,8 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>7</v>
+        <f>SUM('Nhập xuất tồn'!C3)</f>
+        <v>3</v>
       </c>
       <c r="D3" s="4">
         <f>SUM('Nhập xuất tồn'!D3)</f>
@@ -5055,18 +5521,18 @@
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5077,7 +5543,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>144</v>
+        <f>SUM('Nhập xuất tồn'!C4)</f>
+        <v>87</v>
       </c>
       <c r="D4" s="4">
         <f>SUM('Nhập xuất tồn'!D4)</f>
@@ -5085,18 +5552,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>126</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5104,10 +5571,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!C5)</f>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <f>Nhập!AH5</f>
@@ -5115,7 +5583,7 @@
       </c>
       <c r="E5" s="4">
         <f>Xuất!AH6+Huỷ!AH5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F16" si="0">C5+D5-E5</f>
@@ -5134,18 +5602,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!C6)</f>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
         <f>Nhập!AH6</f>
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f>Xuất!AH6</f>
-        <v>0</v>
+        <f>Xuất!AH7</f>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
@@ -5164,29 +5633,30 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!C7,'Nhập xuất tồn'!C8,'Nhập xuất tồn'!C9,'Nhập xuất tồn'!C12,'Nhập xuất tồn'!C14)</f>
+        <v>29</v>
       </c>
       <c r="D7" s="4">
         <f>SUM('Nhập xuất tồn'!D7,'Nhập xuất tồn'!D8,'Nhập xuất tồn'!D9,'Nhập xuất tồn'!D12,'Nhập xuất tồn'!D14)</f>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>Xuất!AH7</f>
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!E8,'Nhập xuất tồn'!E9,'Nhập xuất tồn'!E12,'Nhập xuất tồn'!E14)</f>
+        <v>2</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H17" si="1">SUM(F7-G7)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5194,29 +5664,30 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!C13,'Nhập xuất tồn'!C15)</f>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <f>SUM('Nhập xuất tồn'!D13,'Nhập xuất tồn'!D15)</f>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>Xuất!AH8</f>
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!E13,'Nhập xuất tồn'!E15)</f>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5224,29 +5695,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!C10)</f>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <f>SUM('Nhập xuất tồn'!D10)</f>
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <f>Xuất!AH9</f>
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!E10)</f>
+        <v>7</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5254,29 +5726,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!C11)</f>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <f>SUM('Nhập xuất tồn'!D11)</f>
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <f>Xuất!AH10</f>
+        <f>SUM('Nhập xuất tồn'!E11)</f>
         <v>0</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5284,15 +5757,18 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM('Nhập xuất tồn'!C16)</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="4">
         <f>SUM('Nhập xuất tồn'!D16)</f>
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <f>Xuất!AH16</f>
+        <f>SUM('Nhập xuất tồn'!E16)</f>
         <v>0</v>
       </c>
       <c r="F11" s="4">
@@ -5310,16 +5786,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM('Nhập xuất tồn'!C17)</f>
+        <v>4</v>
+      </c>
       <c r="D12" s="4">
         <f>Nhập!AH17</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f>Xuất!AH17</f>
-        <v>0</v>
+        <f>SUM('Nhập xuất tồn'!E17)</f>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
@@ -5336,15 +5815,18 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM('Nhập xuất tồn'!C18)</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="4">
         <f>Nhập!AH18</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>Xuất!AH18</f>
+        <f>SUM('Nhập xuất tồn'!E18)</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
@@ -5362,15 +5844,18 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM('Nhập xuất tồn'!C19)</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="4">
         <f>Nhập!AH19</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <f>Xuất!AH19</f>
+        <f>SUM('Nhập xuất tồn'!E19)</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
@@ -5388,25 +5873,28 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM('Nhập xuất tồn'!C20)</f>
+        <v>1</v>
+      </c>
       <c r="D15" s="4">
         <f>Nhập!AH20</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f>Xuất!AH20</f>
+        <f>SUM('Nhập xuất tồn'!E20)</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5414,9 +5902,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4">
+        <f>SUM('Nhập xuất tồn'!C21)</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
@@ -5424,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f>Xuất!AH21</f>
+        <f>SUM('Nhập xuất tồn'!E21)</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
@@ -5455,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>Xuất!AH22</f>
+        <f>SUM('Nhập xuất tồn'!E22)</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
@@ -5471,13 +5960,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="12">
         <f>SUM(C3:C17)</f>
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
@@ -5485,11 +5974,11 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5497,7 +5986,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C758CB3-9E4D-47E7-937C-F549A89C0E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96B682-EC4B-4C5C-9920-7085E0B475A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>TungNM:</t>
         </r>
@@ -178,7 +178,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 bộ của KhoVNET
@@ -194,7 +194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>TungNM:</t>
         </r>
@@ -203,7 +203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 bộ của KhoVNET
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>VNSH01</t>
   </si>
@@ -366,9 +366,6 @@
     <t>GPS Global</t>
   </si>
   <si>
-    <t>Chưa trả</t>
-  </si>
-  <si>
     <t>ĐL Hải Yến</t>
   </si>
   <si>
@@ -383,12 +380,30 @@
   <si>
     <t>Đã trả (03/02/26)</t>
   </si>
+  <si>
+    <t>Đã trả (04/02/26)</t>
+  </si>
+  <si>
+    <t>ĐL TranTai</t>
+  </si>
+  <si>
+    <t>Thành Tâm Nha Trang</t>
+  </si>
+  <si>
+    <t>Đã trả (05/02/26)</t>
+  </si>
+  <si>
+    <t>Anh Tuấn BG</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,25 +443,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -577,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,12 +647,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,16 +1125,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1182,22 +1175,22 @@
       </c>
       <c r="D3" s="4">
         <f>Nhập!AH3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1217,18 +1210,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,25 +1772,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="4">
         <f>SUM(C3:C22)</f>
         <v>152</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1805,7 +1798,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1847,7 +1840,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,52 +1852,2136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7">
+        <v>10</v>
+      </c>
+      <c r="M2" s="7">
+        <v>11</v>
+      </c>
+      <c r="N2" s="7">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7">
+        <v>13</v>
+      </c>
+      <c r="P2" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>15</v>
+      </c>
+      <c r="R2" s="7">
+        <v>16</v>
+      </c>
+      <c r="S2" s="7">
+        <v>17</v>
+      </c>
+      <c r="T2" s="7">
+        <v>18</v>
+      </c>
+      <c r="U2" s="7">
+        <v>19</v>
+      </c>
+      <c r="V2" s="7">
+        <v>20</v>
+      </c>
+      <c r="W2" s="7">
+        <v>21</v>
+      </c>
+      <c r="X2" s="7">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="32"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7">
+        <f>SUM(C3:AG3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7">
+        <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="C1:AG1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH23"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="10" customWidth="1"/>
+    <col min="3" max="34" width="5.28515625" style="10" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7">
+        <v>10</v>
+      </c>
+      <c r="M3" s="7">
+        <v>11</v>
+      </c>
+      <c r="N3" s="7">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7">
+        <v>13</v>
+      </c>
+      <c r="P3" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>15</v>
+      </c>
+      <c r="R3" s="7">
+        <v>16</v>
+      </c>
+      <c r="S3" s="7">
+        <v>17</v>
+      </c>
+      <c r="T3" s="7">
+        <v>18</v>
+      </c>
+      <c r="U3" s="7">
+        <v>19</v>
+      </c>
+      <c r="V3" s="7">
+        <v>20</v>
+      </c>
+      <c r="W3" s="7">
+        <v>21</v>
+      </c>
+      <c r="X3" s="7">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="32"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7">
+        <f>SUM(C4:AG4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7">
+        <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:AG2"/>
+    <mergeCell ref="AH2:AH3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AH22"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="10" customWidth="1"/>
+    <col min="3" max="34" width="5.28515625" style="10" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="7">
         <v>1</v>
       </c>
@@ -1998,7 +4075,7 @@
       <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
+      <c r="AH2" s="32"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2082,7 +4159,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
-        <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH18" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
     </row>
@@ -2511,7 +4588,10 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
+      <c r="AH14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -2551,7 +4631,10 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="AH15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -2591,7 +4674,10 @@
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
+      <c r="AH16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -2680,1045 +4766,9 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="C1:AG1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH23"/>
-  <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="10" customWidth="1"/>
-    <col min="3" max="34" width="5.28515625" style="10" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4</v>
-      </c>
-      <c r="G3" s="7">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7">
-        <v>8</v>
-      </c>
-      <c r="K3" s="7">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7">
-        <v>10</v>
-      </c>
-      <c r="M3" s="7">
-        <v>11</v>
-      </c>
-      <c r="N3" s="7">
-        <v>12</v>
-      </c>
-      <c r="O3" s="7">
-        <v>13</v>
-      </c>
-      <c r="P3" s="7">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>15</v>
-      </c>
-      <c r="R3" s="7">
-        <v>16</v>
-      </c>
-      <c r="S3" s="7">
-        <v>17</v>
-      </c>
-      <c r="T3" s="7">
-        <v>18</v>
-      </c>
-      <c r="U3" s="7">
-        <v>19</v>
-      </c>
-      <c r="V3" s="7">
-        <v>20</v>
-      </c>
-      <c r="W3" s="7">
-        <v>21</v>
-      </c>
-      <c r="X3" s="7">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>24</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>29</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>30</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>31</v>
-      </c>
-      <c r="AH3" s="34"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7">
-        <f>SUM(C4:AG4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7">
-        <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3756,7 +4806,7 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3794,7 +4844,7 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3832,7 +4882,7 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3867,1055 +4917,6 @@
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:AG2"/>
-    <mergeCell ref="AH2:AH3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH22"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="10" customWidth="1"/>
-    <col min="3" max="34" width="5.28515625" style="10" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7">
-        <v>7</v>
-      </c>
-      <c r="J2" s="7">
-        <v>8</v>
-      </c>
-      <c r="K2" s="7">
-        <v>9</v>
-      </c>
-      <c r="L2" s="7">
-        <v>10</v>
-      </c>
-      <c r="M2" s="7">
-        <v>11</v>
-      </c>
-      <c r="N2" s="7">
-        <v>12</v>
-      </c>
-      <c r="O2" s="7">
-        <v>13</v>
-      </c>
-      <c r="P2" s="7">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>15</v>
-      </c>
-      <c r="R2" s="7">
-        <v>16</v>
-      </c>
-      <c r="S2" s="7">
-        <v>17</v>
-      </c>
-      <c r="T2" s="7">
-        <v>18</v>
-      </c>
-      <c r="U2" s="7">
-        <v>19</v>
-      </c>
-      <c r="V2" s="7">
-        <v>20</v>
-      </c>
-      <c r="W2" s="7">
-        <v>21</v>
-      </c>
-      <c r="X2" s="7">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>28</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="34"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7">
-        <f>SUM(C3:AG3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7">
-        <f t="shared" ref="AH4:AH18" si="0">SUM(C4:AG4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -4932,7 +4933,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,7 +4972,7 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="34">
         <v>46055</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4988,7 +4989,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="19" t="s">
         <v>40</v>
       </c>
@@ -5003,9 +5004,9 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -5018,9 +5019,9 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -5028,16 +5029,16 @@
         <v>6</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="34">
         <v>46056</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5045,14 +5046,14 @@
         <v>10</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -5060,71 +5061,99 @@
         <v>10</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="34">
+        <v>46057</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="34">
+        <v>46058</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38">
+        <v>20</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5435,9 +5464,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5456,7 +5487,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,16 +5498,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5517,22 +5548,22 @@
       </c>
       <c r="D3" s="4">
         <f>SUM('Nhập xuất tồn'!D3)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5552,18 +5583,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5960,25 +5991,25 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="12">
         <f>SUM(C3:C17)</f>
         <v>152</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5986,7 +6017,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96B682-EC4B-4C5C-9920-7085E0B475A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266AB2B-D1E9-491D-8924-A2AA138CC797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -647,6 +647,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,9 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,16 +1125,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1772,10 +1772,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4">
         <f>SUM(C3:C22)</f>
         <v>152</v>
@@ -1852,52 +1852,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="7">
         <v>1</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
+      <c r="AH2" s="33"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2853,7 +2853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
@@ -2866,88 +2866,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="7">
         <v>1</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="AG3" s="7">
         <v>31</v>
       </c>
-      <c r="AH3" s="32"/>
+      <c r="AH3" s="33"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -3936,52 +3936,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="7">
         <v>1</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
+      <c r="AH2" s="33"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -4972,7 +4972,7 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>46055</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4989,7 +4989,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="19" t="s">
         <v>40</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="19" t="s">
         <v>41</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="35">
         <v>46056</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -5051,7 +5051,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="19" t="s">
         <v>44</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>46057</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -5083,7 +5083,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="35">
         <v>46058</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -5115,16 +5115,16 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25">
         <v>20</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="20"/>
@@ -5498,16 +5498,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5991,10 +5991,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="12">
         <f>SUM(C3:C17)</f>
         <v>152</v>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266AB2B-D1E9-491D-8924-A2AA138CC797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1966EE7B-0405-48EC-A1B9-525742278291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
   <si>
     <t>VNSH01</t>
   </si>
@@ -396,7 +396,19 @@
     <t>Anh Tuấn BG</t>
   </si>
   <si>
-    <t>Chưa trả</t>
+    <t>Anh San Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Đã trả (06/02/26)</t>
+  </si>
+  <si>
+    <t>KL VNET</t>
+  </si>
+  <si>
+    <t>Anh Ttrực</t>
+  </si>
+  <si>
+    <t>Đã trả (07/02/26)</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,22 +1218,22 @@
       </c>
       <c r="D4" s="4">
         <f>Nhập!AH4</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1782,15 +1794,15 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1798,7 +1810,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2063,9 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>72</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2078,7 +2092,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2854,7 +2868,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,7 +3124,9 @@
       <c r="G5" s="7">
         <v>10</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>31</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -3138,7 +3154,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4933,7 +4949,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,35 +5141,57 @@
         <v>20</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="35">
+        <v>46059</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="19">
+        <v>10</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="18">
+        <v>46060</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="19">
+        <v>6</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5464,11 +5502,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5487,7 +5526,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5579,22 +5618,22 @@
       </c>
       <c r="D4" s="4">
         <f>SUM('Nhập xuất tồn'!D4)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6001,15 +6040,15 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6017,7 +6056,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1966EE7B-0405-48EC-A1B9-525742278291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9B73C-2946-46D5-9DC2-7A844EB93492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -1222,18 +1222,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,11 +1798,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2868,7 +2868,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,7 +3127,9 @@
       <c r="H5" s="7">
         <v>31</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3154,7 +3156,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4948,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5622,18 +5624,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6044,11 +6046,11 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6056,7 +6058,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9B73C-2946-46D5-9DC2-7A844EB93492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50ECB0-9538-43E6-BEC0-1220A9149538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -4950,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,8 +5527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50ECB0-9538-43E6-BEC0-1220A9149538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC81466-C328-400D-8689-91470C6465B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>VNSH01</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Đã trả (07/02/26)</t>
+  </si>
+  <si>
+    <t>Đã trả (09/02/26)</t>
+  </si>
+  <si>
+    <t>Trả trước 6 bộ (09/02/26)</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,18 +1228,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,11 +1804,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1810,7 +1816,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2868,7 +2874,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,7 +3137,9 @@
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>32</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -3156,7 +3164,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4951,7 +4959,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5015,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="19" t="s">
         <v>40</v>
       </c>
@@ -5022,7 +5030,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="19" t="s">
         <v>41</v>
       </c>
@@ -5037,7 +5045,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
@@ -5069,7 +5077,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="19" t="s">
         <v>44</v>
       </c>
@@ -5101,7 +5109,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
@@ -5133,7 +5141,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
@@ -5165,7 +5173,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -5197,21 +5205,35 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="35">
+        <v>46062</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="19">
+        <v>20</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="19">
+        <v>12</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5504,7 +5526,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -5528,7 +5551,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5624,18 +5647,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6046,11 +6069,11 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6058,7 +6081,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC81466-C328-400D-8689-91470C6465B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8863A1-0FB8-42C5-B146-E9273749C838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
   <si>
     <t>VNSH01</t>
   </si>
@@ -414,7 +414,13 @@
     <t>Đã trả (09/02/26)</t>
   </si>
   <si>
-    <t>Trả trước 6 bộ (09/02/26)</t>
+    <t>Maxconnect</t>
+  </si>
+  <si>
+    <t>Đã trả 6 bộ (09/02/26) và 6 bộ (10/02/26)</t>
+  </si>
+  <si>
+    <t>Đã trả (10/02/26)</t>
   </si>
 </sst>
 </file>
@@ -4958,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5232,17 +5238,25 @@
         <v>12</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>46063</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="19">
+        <v>10</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5550,7 +5564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8863A1-0FB8-42C5-B146-E9273749C838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369E16D-477E-4DD8-A7E2-525FC98CB188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -1234,18 +1234,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,11 +1810,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3146,9 @@
       <c r="K5" s="7">
         <v>32</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>10</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -3170,7 +3172,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4964,7 +4966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -5564,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5661,18 +5663,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6083,11 +6085,11 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6095,7 +6097,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369E16D-477E-4DD8-A7E2-525FC98CB188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4843AC42-BC74-4070-BE16-885C9F83451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
   <si>
     <t>VNSH01</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>Đã trả (10/02/26)</t>
+  </si>
+  <si>
+    <t>Anh Thái QN</t>
+  </si>
+  <si>
+    <t>Đã trả (11/02/26)</t>
   </si>
 </sst>
 </file>
@@ -1234,18 +1240,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,11 +1816,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1822,7 +1828,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2880,7 +2886,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,7 +3155,9 @@
       <c r="L5" s="7">
         <v>10</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -3172,7 +3180,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4967,7 +4975,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,12 +5270,20 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="23">
+        <v>46064</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="19">
+        <v>6</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5567,7 +5583,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,18 +5679,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,19 +6101,19 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A380A5-7145-4853-9E89-378FD4040BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245DCA9-CF33-4B13-AB0A-D45AED529447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>VNSH01</t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>Đã trả (13/02/26)</t>
+  </si>
+  <si>
+    <t>Anh Trực</t>
+  </si>
+  <si>
+    <t>ĐL Nguyễn Nam</t>
+  </si>
+  <si>
+    <t>Đã trả (23/02/26)</t>
+  </si>
+  <si>
+    <t>LED 3AE</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -709,11 +721,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,6 +798,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,11 +837,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -1250,16 +1282,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1897,10 +1929,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="3">
         <f>SUM(C3:C22)</f>
         <v>152</v>
@@ -1971,52 +2003,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -2110,7 +2142,7 @@
       <c r="AG2" s="5">
         <v>31</v>
       </c>
-      <c r="AH2" s="28"/>
+      <c r="AH2" s="30"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -2993,88 +3025,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="5">
         <v>1</v>
       </c>
@@ -3168,7 +3200,7 @@
       <c r="AG3" s="5">
         <v>31</v>
       </c>
-      <c r="AH3" s="28"/>
+      <c r="AH3" s="30"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -4085,52 +4117,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -4224,7 +4256,7 @@
       <c r="AG2" s="5">
         <v>31</v>
       </c>
-      <c r="AH2" s="28"/>
+      <c r="AH2" s="30"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -5081,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5097,31 +5129,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="32">
         <v>46055</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5138,7 +5170,7 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
@@ -5153,7 +5185,7 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
@@ -5168,7 +5200,7 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
@@ -5183,7 +5215,7 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="32">
         <v>46056</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5200,7 +5232,7 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
@@ -5215,7 +5247,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="32">
         <v>46057</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -5232,7 +5264,7 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
@@ -5247,7 +5279,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="32">
         <v>46058</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -5264,7 +5296,7 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="15" t="s">
         <v>50</v>
       </c>
@@ -5279,7 +5311,7 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="32">
         <v>46059</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5296,7 +5328,7 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
@@ -5328,7 +5360,7 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="32">
         <v>46062</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5345,7 +5377,7 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
@@ -5394,7 +5426,7 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="32">
         <v>46065</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5411,7 +5443,7 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="15" t="s">
         <v>50</v>
       </c>
@@ -5426,30 +5458,50 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="34">
+        <v>46076</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="15">
+        <v>3</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5679,7 +5731,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A5"/>
@@ -5705,7 +5758,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5717,16 +5770,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -6210,10 +6263,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="10">
         <f>SUM(C3:C17)</f>
         <v>152</v>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245DCA9-CF33-4B13-AB0A-D45AED529447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3025E2-3549-4228-9AF6-CF0F2351F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
   <si>
     <t>VNSH01</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>LED 3AE</t>
+  </si>
+  <si>
+    <t>Đã trả (24/02/26)</t>
   </si>
 </sst>
 </file>
@@ -831,12 +834,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -845,6 +842,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,22 +1366,22 @@
       </c>
       <c r="D4" s="3">
         <f>Nhập!AH4</f>
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4">
         <v>16</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1939,15 +1942,15 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
@@ -1955,7 +1958,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1991,7 +1994,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,7 +2224,9 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="Z4" s="5">
+        <v>60</v>
+      </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
@@ -2231,7 +2236,7 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5">
         <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -3012,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AJ27" sqref="AJ27"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,8 +3305,12 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+      <c r="Y5" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>13</v>
+      </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -3311,7 +3320,7 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -5113,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,7 +5162,7 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="35">
         <v>46055</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5170,7 +5179,7 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
@@ -5185,7 +5194,7 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
@@ -5200,7 +5209,7 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
@@ -5215,7 +5224,7 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="35">
         <v>46056</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5232,7 +5241,7 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
@@ -5247,7 +5256,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="35">
         <v>46057</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -5264,7 +5273,7 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
@@ -5279,7 +5288,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="35">
         <v>46058</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -5296,7 +5305,7 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="15" t="s">
         <v>50</v>
       </c>
@@ -5311,7 +5320,7 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="35">
         <v>46059</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5328,7 +5337,7 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
@@ -5360,7 +5369,7 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="35">
         <v>46062</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5377,7 +5386,7 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
@@ -5426,7 +5435,7 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="35">
         <v>46065</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5443,7 +5452,7 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="15" t="s">
         <v>50</v>
       </c>
@@ -5458,7 +5467,7 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="32">
         <v>46076</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -5475,7 +5484,7 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
@@ -5490,7 +5499,7 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
@@ -5505,30 +5514,50 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="32">
+        <v>46077</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="15">
+        <v>10</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="15">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5731,7 +5760,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A15:A16"/>
@@ -5758,7 +5788,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,22 +5881,22 @@
       </c>
       <c r="D4" s="3">
         <f>SUM('Nhập xuất tồn'!D4)</f>
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F4" s="3">
         <f>SUM(C4+D4-E4)</f>
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4">
         <v>14</v>
       </c>
       <c r="H4" s="3">
         <f>SUM(F4-G4)</f>
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6263,25 +6293,25 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="10">
         <f>SUM(C3:C17)</f>
         <v>152</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6289,7 +6319,7 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3025E2-3549-4228-9AF6-CF0F2351F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E41A17-CA80-4326-A8AA-804A9901700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
   <si>
     <t>VNSH01</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>Đã trả (24/02/26)</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1338,7 @@
       </c>
       <c r="D3" s="3">
         <f>Nhập!AH3</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <f>Xuất!AH4+Huỷ!AH3</f>
@@ -1343,14 +1346,14 @@
       </c>
       <c r="F3" s="3">
         <f>C3+D3-E3</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>F3-G3</f>
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,7 +1369,7 @@
       </c>
       <c r="D4" s="3">
         <f>Nhập!AH4</f>
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+Huỷ!AH4</f>
@@ -1374,14 +1377,14 @@
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="G4" s="4">
         <v>16</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,18 +1466,18 @@
       </c>
       <c r="E7" s="3">
         <f>Xuất!AH8</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1942,15 +1945,15 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
@@ -1958,7 +1961,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,7 +1997,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2183,9 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="AA3" s="5">
+        <v>20</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -2189,7 +2194,7 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5">
         <f>SUM(C3:AG3)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -2227,7 +2232,9 @@
       <c r="Z4" s="5">
         <v>60</v>
       </c>
-      <c r="AA4" s="5"/>
+      <c r="AA4" s="5">
+        <v>90</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -2236,7 +2243,7 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5">
         <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
-        <v>132</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -3017,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3454,9 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="Z8" s="5">
+        <v>14</v>
+      </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -3457,7 +3466,7 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -5123,7 +5132,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,21 +5570,37 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="32">
+        <v>46078</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="15">
+        <v>20</v>
+      </c>
+      <c r="E27" s="15">
+        <v>100</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="15">
+        <v>30</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5760,7 +5785,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A19:A20"/>
@@ -5787,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5850,7 +5876,7 @@
       </c>
       <c r="D3" s="3">
         <f>SUM('Nhập xuất tồn'!D3)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <f>SUM('Nhập xuất tồn'!E3)</f>
@@ -5858,14 +5884,14 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(C3+D3-E3)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>SUM(F3-G3)</f>
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5881,7 +5907,7 @@
       </c>
       <c r="D4" s="3">
         <f>SUM('Nhập xuất tồn'!D4)</f>
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="E4" s="3">
         <f>SUM('Nhập xuất tồn'!E4)</f>
@@ -5889,14 +5915,14 @@
       </c>
       <c r="F4" s="3">
         <f>SUM(C4+D4-E4)</f>
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="G4" s="4">
         <v>14</v>
       </c>
       <c r="H4" s="3">
         <f>SUM(F4-G4)</f>
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5978,18 +6004,18 @@
       </c>
       <c r="E7" s="3">
         <f>SUM('Nhập xuất tồn'!E7,'Nhập xuất tồn'!E8,'Nhập xuất tồn'!E9,'Nhập xuất tồn'!E12,'Nhập xuất tồn'!E14)</f>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3">
         <f>SUM((C7+D7)-E7)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:H17" si="1">SUM(F7-G7)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6303,15 +6329,15 @@
       </c>
       <c r="D18" s="10">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="2"/>
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6319,7 +6345,7 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>89</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E41A17-CA80-4326-A8AA-804A9901700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C5CCF-FF1F-4AFB-A251-B3325EF9150A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -209,6 +209,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB10" authorId="0" shapeId="0" xr:uid="{42C52D29-B044-43E9-AF8E-4FE118B3632E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+anh Tuấn NB trả lại</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0" shapeId="0" xr:uid="{79C149D9-8F67-422B-862A-050D435EEBD4}">
       <text>
         <r>
@@ -230,6 +254,30 @@
           </rPr>
           <t xml:space="preserve">
 4 bộ anh Tuấn NB(Tổng 6 bộ), 3 bộ của KhoVNET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB11" authorId="0" shapeId="0" xr:uid="{3C3003CB-E462-4841-BB84-EC6B3A261E7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+anh Tuấn NB trả lại</t>
         </r>
       </text>
     </comment>
@@ -258,6 +306,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB13" authorId="0" shapeId="0" xr:uid="{D0F80204-B56E-4D1F-B0A1-9CDCBD6629D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+anh Tuấn NB trả lại</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O14" authorId="0" shapeId="0" xr:uid="{86B6E639-5532-4875-9F83-35B6F2D7F7BC}">
       <text>
         <r>
@@ -279,6 +351,30 @@
           </rPr>
           <t xml:space="preserve">
 Anh Tuấn BG nhập lại kho VNET</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0" shapeId="0" xr:uid="{87FE6C22-5EC0-4DB6-A30F-B2D8ABA6AA74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+anh Tuấn NB trả lại</t>
         </r>
       </text>
     </comment>
@@ -337,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
   <si>
     <t>VNSH01</t>
   </si>
@@ -547,6 +643,12 @@
   </si>
   <si>
     <t>Chưa trả</t>
+  </si>
+  <si>
+    <t>Đã trả (26/02/26)</t>
+  </si>
+  <si>
+    <t>ĐL Dũng Thu</t>
   </si>
 </sst>
 </file>
@@ -837,16 +939,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1373,18 +1475,18 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4">
         <v>16</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,18 +1630,18 @@
       </c>
       <c r="E9" s="3">
         <f>Xuất!AH10</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,18 +1661,18 @@
       </c>
       <c r="E10" s="3">
         <f>Xuất!AH11</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,18 +1723,18 @@
       </c>
       <c r="E12" s="3">
         <f>Xuất!AH13</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,18 +1785,18 @@
       </c>
       <c r="E14" s="3">
         <f>Xuất!AH15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1949,11 +2051,11 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
@@ -1961,7 +2063,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3024,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3421,9 @@
         <v>13</v>
       </c>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="AB5" s="5">
+        <v>31</v>
+      </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
@@ -3327,7 +3431,7 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -3550,7 +3654,9 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="AB10" s="5">
+        <v>2</v>
+      </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
@@ -3558,7 +3664,7 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -3595,7 +3701,9 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="AB11" s="5">
+        <v>5</v>
+      </c>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -3603,7 +3711,7 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -3683,7 +3791,9 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="AB13" s="5">
+        <v>2</v>
+      </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
@@ -3691,7 +3801,7 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -3771,7 +3881,9 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="5">
+        <v>2</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -3779,7 +3891,7 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -5131,8 +5243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5171,7 +5283,7 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="32">
         <v>46055</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5188,7 +5300,7 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
@@ -5203,7 +5315,7 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
@@ -5218,7 +5330,7 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
@@ -5233,7 +5345,7 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="32">
         <v>46056</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5250,7 +5362,7 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
@@ -5265,7 +5377,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="32">
         <v>46057</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -5282,7 +5394,7 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
@@ -5297,7 +5409,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="32">
         <v>46058</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -5314,7 +5426,7 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="15" t="s">
         <v>50</v>
       </c>
@@ -5329,7 +5441,7 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="32">
         <v>46059</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5346,7 +5458,7 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
@@ -5378,7 +5490,7 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="32">
         <v>46062</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5395,7 +5507,7 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
@@ -5444,7 +5556,7 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="32">
         <v>46065</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5461,7 +5573,7 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="15" t="s">
         <v>50</v>
       </c>
@@ -5476,7 +5588,7 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="33">
         <v>46076</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -5493,7 +5605,7 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
@@ -5523,7 +5635,7 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>46077</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -5540,7 +5652,7 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>64</v>
       </c>
@@ -5570,7 +5682,7 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="33">
         <v>46078</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -5598,27 +5710,41 @@
       <c r="E28" s="15">
         <v>30</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>69</v>
+      <c r="F28" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="33">
+        <v>46079</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="15">
+        <v>20</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5785,7 +5911,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A21:A23"/>
@@ -5813,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,18 +6038,18 @@
       </c>
       <c r="E4" s="3">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F4" s="3">
         <f>SUM(C4+D4-E4)</f>
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4">
         <v>14</v>
       </c>
       <c r="H4" s="3">
         <f>SUM(F4-G4)</f>
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6004,18 +6131,18 @@
       </c>
       <c r="E7" s="3">
         <f>SUM('Nhập xuất tồn'!E7,'Nhập xuất tồn'!E8,'Nhập xuất tồn'!E9,'Nhập xuất tồn'!E12,'Nhập xuất tồn'!E14)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3">
         <f>SUM((C7+D7)-E7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:H17" si="1">SUM(F7-G7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6066,18 +6193,18 @@
       </c>
       <c r="E9" s="3">
         <f>SUM('Nhập xuất tồn'!E10)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6333,11 +6460,11 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6345,7 +6472,7 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C5CCF-FF1F-4AFB-A251-B3325EF9150A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD447D-07F4-460D-AB2C-1A119B585CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
   <si>
     <t>VNSH01</t>
   </si>
@@ -939,9 +939,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -949,6 +946,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,18 +1444,18 @@
       </c>
       <c r="E3" s="3">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
         <f>C3+D3-E3</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>F3-G3</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,18 +1475,18 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G4" s="4">
         <v>16</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3126,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,7 +3354,9 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="AB4" s="5">
+        <v>3</v>
+      </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
@@ -3362,7 +3364,7 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5">
         <f>SUM(C4:AG4)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -3422,7 +3424,7 @@
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
@@ -3431,7 +3433,7 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -5241,10 +5243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +5285,7 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="35">
         <v>46055</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5300,7 +5302,7 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
@@ -5315,7 +5317,7 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
@@ -5330,7 +5332,7 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
@@ -5345,7 +5347,7 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="35">
         <v>46056</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5362,7 +5364,7 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
@@ -5377,7 +5379,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="35">
         <v>46057</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -5394,7 +5396,7 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
@@ -5409,7 +5411,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="35">
         <v>46058</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -5426,7 +5428,7 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="15" t="s">
         <v>50</v>
       </c>
@@ -5441,7 +5443,7 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="35">
         <v>46059</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5458,7 +5460,7 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
@@ -5490,7 +5492,7 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="35">
         <v>46062</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5507,7 +5509,7 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
@@ -5556,7 +5558,7 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="35">
         <v>46065</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5573,7 +5575,7 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="15" t="s">
         <v>50</v>
       </c>
@@ -5588,7 +5590,7 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>46076</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -5605,7 +5607,7 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
@@ -5620,7 +5622,7 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
@@ -5635,7 +5637,7 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>46077</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -5652,7 +5654,7 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="15" t="s">
         <v>64</v>
       </c>
@@ -5667,7 +5669,7 @@
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15" t="s">
         <v>14</v>
       </c>
@@ -5682,7 +5684,7 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="32">
         <v>46078</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -5701,7 +5703,7 @@
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15" t="s">
         <v>50</v>
       </c>
@@ -5716,16 +5718,18 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="32">
         <v>46079</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15">
+        <v>3</v>
+      </c>
       <c r="E29" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>70</v>
@@ -5735,25 +5739,31 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>20</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="15">
+        <v>20</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5847,7 +5857,7 @@
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -5909,22 +5919,31 @@
       <c r="F48" s="15"/>
       <c r="G48" s="16"/>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
   <mergeCells count="11">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:F999">
+  <conditionalFormatting sqref="D2:F1000">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISNUMBER(SEARCH("Đã trả",$F2))</formula>
     </cfRule>
@@ -5941,7 +5960,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6007,18 +6026,18 @@
       </c>
       <c r="E3" s="3">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(C3+D3-E3)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>SUM(F3-G3)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6038,18 +6057,18 @@
       </c>
       <c r="E4" s="3">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3">
         <f>SUM(C4+D4-E4)</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G4" s="4">
         <v>14</v>
       </c>
       <c r="H4" s="3">
         <f>SUM(F4-G4)</f>
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6460,11 +6479,11 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -6472,7 +6491,7 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 02_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD447D-07F4-460D-AB2C-1A119B585CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655CD88B-9B7D-4087-9765-B32DF8D3D3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,136 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TungNM</author>
+  </authors>
+  <commentList>
+    <comment ref="AB3" authorId="0" shapeId="0" xr:uid="{E92DA64E-39C7-4707-8ECF-5DA2DB4C9513}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiết bị kho gửi kiểm tra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB4" authorId="0" shapeId="0" xr:uid="{EB044126-5D87-4C85-AA82-4FCA5FC7C5FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiết bị kho gửi kiểm tra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB12" authorId="0" shapeId="0" xr:uid="{86BB30D9-A384-40EF-9501-703D46726E5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiết bị kho gửi kiểm tra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB19" authorId="0" shapeId="0" xr:uid="{87C40E37-E9D9-4410-A584-E8ECF55CE023}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiết bị kho gửi kiểm tra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB23" authorId="0" shapeId="0" xr:uid="{BD6FF468-9963-4997-B8DB-0BDBC73A65A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TungNM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiết bị kho gửi kiểm tra</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>TungNM</author>
@@ -433,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
   <si>
     <t>VNSH01</t>
   </si>
@@ -649,6 +779,18 @@
   </si>
   <si>
     <t>ĐL Dũng Thu</t>
+  </si>
+  <si>
+    <t>Đã trả (27/02/26)</t>
+  </si>
+  <si>
+    <t>Mắt camera</t>
+  </si>
+  <si>
+    <t>Mắt Camera</t>
+  </si>
+  <si>
+    <t>Chuyển qua tháng 03/2026</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1582,7 @@
       </c>
       <c r="D3" s="3">
         <f>Nhập!AH3</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <f>Xuất!AH4+Huỷ!AH3</f>
@@ -1448,14 +1590,14 @@
       </c>
       <c r="F3" s="3">
         <f>C3+D3-E3</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>F3-G3</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,22 +1613,22 @@
       </c>
       <c r="D4" s="3">
         <f>Nhập!AH4</f>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G4" s="4">
         <v>16</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,7 +1861,7 @@
       </c>
       <c r="D12" s="3">
         <f>Nhập!AH12</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <f>Xuất!AH13</f>
@@ -1727,14 +1869,14 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,7 +1923,7 @@
       </c>
       <c r="D14" s="3">
         <f>Nhập!AH14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
         <f>Xuất!AH15</f>
@@ -1789,14 +1931,14 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1927,7 +2069,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3">
         <f>Nhập!AH19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
         <f>Xuất!AH20</f>
@@ -1935,12 +2077,12 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,37 +2179,60 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f>SUM(Nhập!AH23)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUM(Xuất!AH24)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f>SUM(C23+D23)-E23</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3">
+        <f>SUM(F23-G23)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="3">
+      <c r="B24" s="26"/>
+      <c r="C24" s="3">
         <f>SUM(C3:C22)</f>
         <v>152</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>269</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:G24" si="2">SUM(D3:D22)</f>
+        <v>273</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>271</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G23" s="3">
+        <v>298</v>
+      </c>
+      <c r="F24" s="3">
+        <f>SUM(F3:F23)</f>
+        <v>130</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="H24" s="3">
+        <f>SUM(H3:H23)</f>
+        <v>112</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -2083,11 +2248,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2095,11 +2263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2456,9 @@
       <c r="AA3" s="5">
         <v>20</v>
       </c>
-      <c r="AB3" s="5"/>
+      <c r="AB3" s="5">
+        <v>1</v>
+      </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
@@ -2296,7 +2466,7 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5">
         <f>SUM(C3:AG3)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -2337,7 +2507,9 @@
       <c r="AA4" s="5">
         <v>90</v>
       </c>
-      <c r="AB4" s="5"/>
+      <c r="AB4" s="5">
+        <v>1</v>
+      </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
@@ -2345,7 +2517,7 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5">
         <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2673,7 +2845,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -2687,7 +2859,9 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="AB12" s="5">
+        <v>1</v>
+      </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
@@ -2695,7 +2869,7 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -2748,7 +2922,9 @@
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2779,7 +2955,10 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
+      <c r="AH14" s="5">
+        <f>SUM(C14:AG14)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -2979,7 +3158,9 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="AB19" s="5">
+        <v>1</v>
+      </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
@@ -2987,7 +3168,7 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -3110,6 +3291,51 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
     </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6">
+        <f>SUM(C23:AG23)</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -3119,15 +3345,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,14 +3653,16 @@
       <c r="AB5" s="5">
         <v>36</v>
       </c>
-      <c r="AC5" s="5"/>
+      <c r="AC5" s="5">
+        <v>27</v>
+      </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -3577,7 +3806,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -3622,7 +3851,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -3671,7 +3900,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -3718,7 +3947,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>24</v>
@@ -3761,7 +3990,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>25</v>
@@ -3808,7 +4037,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>26</v>
@@ -3853,7 +4082,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>27</v>
@@ -3898,7 +4127,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>28</v>
@@ -3943,7 +4172,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>29</v>
@@ -3986,7 +4215,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>30</v>
@@ -4030,7 +4259,9 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
@@ -4068,7 +4299,9 @@
       <c r="AH19" s="5"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -4106,7 +4339,9 @@
       <c r="AH20" s="5"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -4144,7 +4379,9 @@
       <c r="AH21" s="5"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
@@ -4182,7 +4419,9 @@
       <c r="AH22" s="5"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
@@ -4218,6 +4457,49 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5">
+        <f>SUM(C24:AG24)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5243,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,7 +5982,9 @@
       <c r="F27" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
@@ -5761,19 +6045,29 @@
       <c r="E31" s="15">
         <v>20</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>69</v>
+      <c r="F31" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="14">
+        <v>46080</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="E32" s="15">
+        <v>30</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -5927,6 +6221,16 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="17">
+        <f>SUM(D2:D32)</f>
+        <v>38</v>
+      </c>
+      <c r="E50" s="17">
+        <f>SUM(E2:E32)</f>
+        <v>339</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
@@ -5957,10 +6261,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,7 +6326,7 @@
       </c>
       <c r="D3" s="3">
         <f>SUM('Nhập xuất tồn'!D3)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <f>SUM('Nhập xuất tồn'!E3)</f>
@@ -6030,14 +6334,14 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(C3+D3-E3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>SUM(F3-G3)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6053,22 +6357,22 @@
       </c>
       <c r="D4" s="3">
         <f>SUM('Nhập xuất tồn'!D4)</f>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4" s="3">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3">
         <f>SUM(C4+D4-E4)</f>
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G4" s="4">
         <v>14</v>
       </c>
       <c r="H4" s="3">
         <f>SUM(F4-G4)</f>
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6146,7 +6450,7 @@
       </c>
       <c r="D7" s="3">
         <f>SUM('Nhập xuất tồn'!D7,'Nhập xuất tồn'!D8,'Nhập xuất tồn'!D9,'Nhập xuất tồn'!D12,'Nhập xuất tồn'!D14)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3">
         <f>SUM('Nhập xuất tồn'!E7,'Nhập xuất tồn'!E8,'Nhập xuất tồn'!E9,'Nhập xuất tồn'!E12,'Nhập xuất tồn'!E14)</f>
@@ -6154,14 +6458,14 @@
       </c>
       <c r="F7" s="3">
         <f>SUM((C7+D7)-E7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:H17" si="1">SUM(F7-G7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6357,7 +6661,7 @@
       </c>
       <c r="D14" s="3">
         <f>Nhập!AH19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <f>SUM('Nhập xuất tồn'!E19)</f>
@@ -6365,12 +6669,12 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6465,42 +6769,71 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="3">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <f>'Nhập xuất tồn'!D23</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>'Nhập xuất tồn'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f>'Nhập xuất tồn'!F23</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <f>'Nhập xuất tồn'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f>'Nhập xuất tồn'!H23</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="10">
+      <c r="B19" s="36"/>
+      <c r="C19" s="10">
         <f>SUM(C3:C17)</f>
         <v>152</v>
       </c>
-      <c r="D18" s="10">
-        <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>269</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="2"/>
-        <v>271</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
+      <c r="D19" s="10">
+        <f>SUM(D3:D17)</f>
+        <v>273</v>
+      </c>
+      <c r="E19" s="10">
+        <f>SUM(E3:E17)</f>
+        <v>298</v>
+      </c>
+      <c r="F19" s="10">
+        <f>SUM(F3:F18)</f>
+        <v>130</v>
+      </c>
+      <c r="G19" s="11">
+        <f>SUM(G3:G17)</f>
         <v>15</v>
       </c>
-      <c r="H18" s="10">
-        <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9"/>
+      <c r="H19" s="10">
+        <f>SUM(H3:H18)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
